--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3suhi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D275F0FD-3F9A-48B4-8B75-99FD93A1AA3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,13 +128,18 @@
   </si>
   <si>
     <t>자동 그래프 갱신과 푸시 통지 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVER UI 기능 연동 시도
+실패함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,14 +316,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,28 +607,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="3" max="20" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="10" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -676,15 +685,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="62" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -699,7 +710,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" ht="62" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -722,7 +733,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="62" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -745,7 +756,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -804,73 +815,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D275F0FD-3F9A-48B4-8B75-99FD93A1AA3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C6324DA-2458-465B-9C83-369A913CACC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,7 +132,8 @@
   </si>
   <si>
     <t>NAVER UI 기능 연동 시도
-실패함</t>
+HelloWorld는 출력했으나
+NetworkOnMainThreadException 로 인해 API호출 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,10 +324,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +612,7 @@
   <dimension ref="B1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +690,7 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="4"/>
@@ -816,72 +817,72 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C6324DA-2458-465B-9C83-369A913CACC9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99DDDBF3-8D07-45C2-BBC5-2B6DA4F8DCA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,11 @@
     <t>NAVER UI 기능 연동 시도
 HelloWorld는 출력했으나
 NetworkOnMainThreadException 로 인해 API호출 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncTask로
+NetworkOnMainThreadException 처리할 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +617,7 @@
   <dimension ref="B1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,7 +698,9 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="12"/>

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99DDDBF3-8D07-45C2-BBC5-2B6DA4F8DCA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +123,6 @@
   </si>
   <si>
     <t>2018-06-15 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 그래프 갱신과 푸시 통지 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,14 +134,33 @@
   <si>
     <t>AsyncTask로
 NetworkOnMainThreadException 처리할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-06-16 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-17 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-18 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-19 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-20 (금)</t>
+  </si>
+  <si>
+    <t>D-day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +185,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +220,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -288,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +361,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,33 +660,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="3" max="20" width="28.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="25.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -690,16 +738,31 @@
       <c r="T3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -717,8 +780,15 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="62.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -740,8 +810,13 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="19"/>
     </row>
-    <row r="6" spans="2:20" ht="62.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" ht="62.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -763,140 +838,192 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="19"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="I7" s="1">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
+      <c r="J7" s="5">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
+      <c r="K7" s="1">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
+      <c r="L7" s="1">
         <v>13</v>
       </c>
-      <c r="H7" s="1">
+      <c r="M7" s="1">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="N7" s="1">
         <v>11</v>
       </c>
-      <c r="J7" s="5">
+      <c r="O7" s="5">
         <v>10</v>
       </c>
-      <c r="K7" s="1">
+      <c r="P7" s="1">
         <v>9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="Q7" s="1">
         <v>8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="R7" s="1">
         <v>7</v>
       </c>
-      <c r="N7" s="1">
+      <c r="S7" s="1">
         <v>6</v>
       </c>
-      <c r="O7" s="5">
+      <c r="T7" s="5">
         <v>5</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>4</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="W7" s="1">
         <v>2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
+      <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="18"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="F8:J10"/>
-    <mergeCell ref="K8:O10"/>
-    <mergeCell ref="P8:T10"/>
+  <mergeCells count="1">
+    <mergeCell ref="Y4:Y6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>D-day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,7 +668,7 @@
   <dimension ref="B1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -687,7 +691,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -784,7 +788,7 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -792,7 +796,9 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -814,13 +820,15 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="19"/>
+      <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="2:25" ht="62.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -842,7 +850,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="19"/>
+      <c r="Y6" s="20"/>
     </row>
     <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_Source_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9344BA1-6A85-40C5-A46E-EF10C33ABF25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14033" windowHeight="4113" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,38 +133,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018-06-16 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-17 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-18 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-19 (금)</t>
+  </si>
+  <si>
+    <t>2018-06-20 (금)</t>
+  </si>
+  <si>
+    <t>D-day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AsyncTask로
-NetworkOnMainThreadException 처리할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-06-16 (금)</t>
-  </si>
-  <si>
-    <t>2018-06-17 (금)</t>
-  </si>
-  <si>
-    <t>2018-06-18 (금)</t>
-  </si>
-  <si>
-    <t>2018-06-19 (금)</t>
-  </si>
-  <si>
-    <t>2018-06-20 (금)</t>
-  </si>
-  <si>
-    <t>D-day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+NetworkOnMainThreadException 처리할 것
+=&gt;Thread로 처리함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread로 API호출을 처리함
+API호출 후 결과값을 넘기지 못하는
+문제 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI에 적용 혹은 파서로 쪼개서
+ UI에 표시할것(예정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,29 +677,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="25.08203125" customWidth="1"/>
+    <col min="3" max="20" width="28.0546875" style="1" customWidth="1"/>
+    <col min="21" max="25" width="25.0546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -743,22 +756,22 @@
         <v>24</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,10 +779,14 @@
         <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -789,15 +806,15 @@
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="62.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" ht="62.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -822,12 +839,12 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="20"/>
     </row>
-    <row r="6" spans="2:25" ht="62.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:25" ht="62.2" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -852,7 +869,7 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="20"/>
     </row>
-    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -924,7 +941,7 @@
       </c>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -949,7 +966,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
@@ -977,7 +994,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1022,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.65">
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Piece\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9344BA1-6A85-40C5-A46E-EF10C33ABF25}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14033" windowHeight="4113" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,13 +169,25 @@
   <si>
     <t>UI에 적용 혹은 파서로 쪼개서
  UI에 표시할것(예정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android BootStrap 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android BootStrap로 UI 디자인 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,29 +688,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="3" max="20" width="28.0546875" style="1" customWidth="1"/>
-    <col min="21" max="25" width="25.0546875" customWidth="1"/>
+    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="25.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -771,7 +782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,14 +820,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="62.2" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -839,19 +852,31 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="20"/>
     </row>
-    <row r="6" spans="2:25" ht="62.2" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -869,7 +894,7 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="20"/>
     </row>
-    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -941,7 +966,7 @@
       </c>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -966,7 +991,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1019,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1047,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_Source_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E1E06F90-5CF7-4F31-BED6-00FFCBAD32F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,27 +168,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android BootStrap 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android BootStrap로 UI 디자인 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UI에 적용 혹은 파서로 쪼개서
- UI에 표시할것(예정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android BootStrap 조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android BootStrap로 UI 디자인 개선</t>
+ UI에 표시할것(예정)
+=&gt;구현 중(미완성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파서 구현 및 UI에 뿌리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,29 +694,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="25.08203125" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="3" max="20" width="28.125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -782,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" ht="78.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,10 +802,12 @@
         <v>34</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -820,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -852,7 +860,7 @@
       <c r="X5" s="14"/>
       <c r="Y5" s="20"/>
     </row>
-    <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -860,22 +868,22 @@
         <v>32</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -894,7 +902,7 @@
       <c r="X6" s="14"/>
       <c r="Y6" s="20"/>
     </row>
-    <row r="7" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -966,7 +974,7 @@
       </c>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -991,7 +999,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1027,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="2:25" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1055,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Open_Source_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_Source_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E1E06F90-5CF7-4F31-BED6-00FFCBAD32F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="4110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14030" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>김현일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +35,6 @@
   </si>
   <si>
     <t>야노수희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,13 +178,27 @@
   </si>
   <si>
     <t>파서 구현 및 UI에 뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xm l : 약 200 줄
+java,kotlin : 약 570 줄 
+--&gt;합 770 줄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,19 +243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -315,19 +308,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalUp="1">
       <left style="thin">
         <color indexed="64"/>
@@ -351,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,16 +359,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,8 +383,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,119 +680,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="3" max="20" width="28.125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="3" max="20" width="28.08203125" style="1" customWidth="1"/>
+    <col min="21" max="25" width="25.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="11" t="s">
-        <v>6</v>
+    <row r="1" spans="2:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="10" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="2:25" ht="78.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="79" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12"/>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -820,23 +806,23 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="20" t="s">
-        <v>31</v>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -854,36 +840,36 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="20"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -896,15 +882,15 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="20"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>22</v>
@@ -972,112 +958,115 @@
       <c r="X7" s="1">
         <v>1</v>
       </c>
-      <c r="Y7" s="18"/>
+      <c r="Y7" s="16"/>
     </row>
-    <row r="8" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="18"/>
+    <row r="8" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="16"/>
     </row>
-    <row r="9" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="18"/>
+    <row r="9" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="18"/>
+    <row r="10" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/개발일정.xlsx
+++ b/개발일정.xlsx
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Android BootStrap로 UI 디자인 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI에 적용 혹은 파서로 쪼개서
  UI에 표시할것(예정)
 =&gt;구현 중(미완성)</t>
@@ -192,6 +188,10 @@
     <t>xm l : 약 200 줄
 java,kotlin : 약 570 줄 
 --&gt;합 770 줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph화면, SearchResult상품상세정보화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,9 +383,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +396,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -707,7 +707,7 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -734,7 +734,7 @@
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -788,11 +788,11 @@
         <v>32</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -810,7 +810,7 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="22"/>
+      <c r="Y5" s="21"/>
     </row>
     <row r="6" spans="2:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7" t="s">
@@ -866,10 +866,10 @@
         <v>34</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -886,7 +886,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="21"/>
     </row>
     <row r="7" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
@@ -961,17 +961,17 @@
       <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="20" t="s">
-        <v>38</v>
+      <c r="B8" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -993,7 +993,7 @@
       <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1019,7 +1019,7 @@
       <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="2:25" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
